--- a/tests/multialgorithm/fixtures/validation/testing/stochastic/00001/00001-wc_lang.xlsx
+++ b/tests/multialgorithm/fixtures/validation/testing/stochastic/00001/00001-wc_lang.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthur_at_sinai/gitOnMyLaptopLocal/wc_dev_repos/wc_sim/tests/multialgorithm/fixtures/validation/test_cases/00001/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthur_at_sinai/gitOnMyLaptopLocal/wc_dev_repos/wc_sim/tests/multialgorithm/fixtures/validation/testing/stochastic/00001/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23700" windowHeight="11840" tabRatio="989" activeTab="8"/>
-    <workbookView xWindow="-27720" yWindow="2560" windowWidth="27220" windowHeight="9160" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23700" windowHeight="11840" tabRatio="989" firstSheet="3" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="2560" windowWidth="25140" windowHeight="9160" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="86">
   <si>
     <t>Id</t>
   </si>
@@ -867,7 +867,9 @@
   <sheetPr codeName="Sheet10" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView zoomScale="161" zoomScaleNormal="161" zoomScalePageLayoutView="161" workbookViewId="0"/>
+    <sheetView zoomScale="161" zoomScaleNormal="161" zoomScalePageLayoutView="161" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
     <sheetView zoomScale="133" zoomScaleNormal="133" zoomScalePageLayoutView="133" workbookViewId="1">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -1035,8 +1037,8 @@
   <sheetPr codeName="Sheet13" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
     <sheetView zoomScale="133" zoomScaleNormal="133" zoomScalePageLayoutView="133" workbookViewId="1">
       <selection activeCell="A2" sqref="A2"/>
@@ -1104,6 +1106,9 @@
       <c r="C3" t="s">
         <v>83</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="E3" s="2">
         <v>0.1</v>
       </c>
@@ -1117,6 +1122,9 @@
       </c>
       <c r="C4" t="s">
         <v>83</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="E4" s="2">
         <v>0.11</v>
@@ -1775,7 +1783,7 @@
   <sheetPr codeName="Sheet9" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
     <sheetView zoomScale="133" zoomScaleNormal="133" zoomScalePageLayoutView="133" workbookViewId="1">
